--- a/outputs/PITTSBURG2.xlsx
+++ b/outputs/PITTSBURG2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Learning Style
-Why: Abi, who prefers a comprehensive information processing style, would likely not consider this page as helping to achieve the overall use case of finding an issue to work on. The page primarily displays project details and files, with no immediate indication or link to a list of issues. Given Abi's low computer self-efficacy and preference for process-oriented learning, the lack of clear guidance or explicit instructions would make it difficult for Abi to deduce that this page is a step toward finding issues. Abi might feel uncertain or overwhelmed due to the lack of direct and clear information linking to the issues list.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a project details page, which primarily lists files and folders related to the project. There is no clear indication or section that explicitly mentions "issues" or "bugs" that need to be worked on. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding a list of issues. Additionally, due to her low computer self-efficacy, she might not feel confident navigating through the project files to find the issues.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style
-Why: Scrolling down aligns with Abi's information processing style. Abi prefers to gather comprehensive information and would naturally scroll down the page to see if there is more relevant information available. The action of scrolling does not involve any technical complexity or decision-making, which fits well with Abi's tendency to gather information comprehensively before acting. Therefore, scrolling down the webpage is an action Abi would be likely to take.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. She is likely to scroll down to gather more information and understand the content of the page better. This action does not require high computer self-efficacy or involve any risk, making it a suitable step for Abi to take.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Learning Style
-Why: After scrolling down the webpage, Abi will not find any direct information or clear links regarding where to find a list of issues. The page continues to display project details and files without providing the needed guidance for finding issues. Abi, who prefers a comprehensive information processing style, would feel lost due to the absence of clear and relevant information. Additionally, Abi's low computer self-efficacy would likely make them unsure if they are making progress toward their goal. The lack of clear instructions or explicit cues on the page would hinder Abi's confidence in knowing they did the right thing and are making progress toward finding an issue to work on.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, Abi will still be on the same project details page, which primarily lists files and folders related to the project. There is no clear indication or section that explicitly mentions "issues" or "bugs" that need to be worked on. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not feel that she is making progress toward finding a list of issues. Additionally, due to her low computer self-efficacy, she might not feel confident navigating through the project files to find the issues.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Toward Risk, Learning Style
-Why: The issue icon on the left sidebar is not clearly indicated as the place to find a list of issues. Abi, who has low computer self-efficacy and a risk-averse attitude, might not feel confident clicking on an icon without knowing exactly what it will do. There are no explicit labels or instructions on the page guiding Abi to click the issue icon for finding issues, which would be necessary for Abi's process-oriented learning style. Without clear cues, Abi might hesitate to take this action, fearing it might not lead to the desired outcome and could potentially cause confusion or waste time.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The issue icon on the left side is not explicitly labeled, and there is no clear indication on the page about what it does. Given Abi's low computer self-efficacy, she might not feel confident clicking on an icon without knowing its purpose. Additionally, Abi prefers process-oriented learning and might not be comfortable with tinkering or trying out features without clear instructions. Therefore, she might not know what to do at this step and may hesitate to take this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style
-Why: After clicking on the issue icon, Abi will land on a page that clearly lists the issues, along with relevant details such as the issue title, status, and tags. This page is well-organized and provides comprehensive information, aligning with Abi's information processing style. Abi will be able to see that they have found the list of issues and can easily identify that they are making progress toward their goal. The clear presentation of the issues and the relevant details will give Abi the confidence that they have done the right thing and have all the information they need to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the issue icon, Abi will land on a page that clearly lists issues with relevant details such as titles, importance, and status. This page directly aligns with her goal of finding a list of issues to work on. The information is presented in a structured and comprehensive manner, which suits Abi's information processing style. She will know that she did the right thing and is making progress toward her goal, as the page provides all the necessary information about the issues.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Abi is motivated to find an issue to work on, and this page provides a clear list of issues with relevant details such as titles, tags, and dates. This aligns with Abi's comprehensive information processing style, as the page offers a well-organized overview of potential issues. Abi will likely recognize that selecting an issue from this list is a logical and necessary step toward achieving the overall use case of finding an issue to work on. The structured presentation of information will help Abi feel confident that they are progressing toward their goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists various issues with relevant details such as titles, importance, and status. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would recognize that selecting an issue from this list is a logical step toward achieving her overall goal of finding an issue to work on. The structured presentation of information aligns with her need for a comprehensive understanding before taking action.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page clearly lists the issues with pertinent details, such as titles, tags, and dates, making it straightforward for Abi to read through the list. Abi's information processing style involves gathering comprehensive information, and the structured presentation of the issues aligns well with this. Additionally, Abi is motivated to find an issue to work on, and reading through the list is an essential step in making an informed decision. The page provides the necessary information in an organized manner, making it easy for Abi to know what to do at this step.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page presents a clear and structured list of issues, each with relevant details such as titles, importance, and status. This aligns with Abi's comprehensive information processing style, as she can read through the list to gather the necessary information before making a decision. Additionally, the clear presentation of issues supports her motivation to accomplish tasks efficiently. The page is well-organized and provides the information Abi needs to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After reading through the list of issues, Abi will know they are making progress toward their goal of selecting an issue to work on. The page provides comprehensive and clearly organized information about each issue, including titles, tags, and dates, which aligns with Abi's preference for gathering detailed information. The structured presentation will help Abi feel confident in their understanding of the issues and their progress toward the goal. Abi's motivation to find and select an issue to work on will be reinforced by the clear, relevant, and easily digestible information provided on the page. This will ensure Abi knows they did the right thing and have all the information needed to make an informed decision.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear and structured list of issues, each with relevant details such as titles, importance, and status. This aligns with Abi's comprehensive information processing style, as she can read through the list to gather the necessary information before making a decision. The structured presentation of information supports her motivation to accomplish tasks efficiently. Abi will know that she is making progress toward her goal of selecting an issue to work on, as the page provides all the necessary information about the issues.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page is well-organized, with each issue clearly listed and clickable. Abi, who prefers a comprehensive information processing style, will understand that clicking on an issue will provide more details about it. The page design intuitively suggests that clicking on an issue title will lead to further information, which aligns with Abi's goal of selecting an issue to work on. Abi's motivation to find and select an issue is supported by the clear and structured layout of the page, making it easy for Abi to know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page presents a clear and structured list of issues, each with relevant details such as titles, importance, and status. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she will understand that clicking on an issue will provide more detailed information about it. The page is well-organized and intuitive, making it easy for Abi to know what to do at this step and take the action confidently.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy, Learning Style
-Why: After clicking on an issue, Abi lands on a page with a minimal amount of information about the issue itself. The page lacks comprehensive details that Abi would need to feel confident that they selected the right issue and are making progress toward their goal. Abi's information processing style is comprehensive, and the sparse details provided on this page may not be enough to satisfy their need for a complete understanding of the issue. Additionally, Abi's low computer self-efficacy and preference for process-oriented learning mean that they might feel uncertain or overwhelmed by the lack of clear, detailed information. Without more context or guidance, Abi may not feel confident that they have done the right thing or obtained all the necessary information to move forward.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on an issue, Abi lands on a page with limited information about the issue. The page lacks detailed descriptions, steps to reproduce, or any context that would help Abi understand the issue comprehensively. Given Abi's comprehensive information processing style, she would need more detailed information to feel confident that she is making progress toward her goal. Additionally, due to her low computer self-efficacy, the lack of detailed information might make her feel uncertain about whether she did the right thing and is on the right track.</t>
         </is>
       </c>
     </row>

--- a/outputs/PITTSBURG2.xlsx
+++ b/outputs/PITTSBURG2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with a list of files and some information about the project. ABI is looking for a list of issues or where issues are located. This page does not explicitly indicate where to find issues or provide a list of issues. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately recognize this page as a step toward finding issues. The lack of clear direction or indication about issues on this page would likely deter ABI from considering this as a step toward achieving the overall use case.</t>
+Why: The page primarily displays a repository's file structure and some information about the FLOSScoach project. There is no clear indication or direct link to a list of issues or where issues are located. Given Abi's preference for comprehensive information and process-oriented learning, she would likely not consider this page as a step toward finding issues for a newcomer to work on. Additionally, Abi's low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with ABI's comprehensive information processing style. ABI tends to gather all available information before taking action. Scrolling down is a natural step to see if there is more relevant information further down the page that might help in finding the list of issues or where issues are located. The page is not overwhelming and provides a structured view, which would encourage ABI to scroll down to gather more information.</t>
+Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather all available information before making decisions, and scrolling down is a natural action to see if there is more relevant information further down the page. The page is not overwhelming and provides structured information, which should be manageable for Abi to process.</t>
         </is>
       </c>
     </row>
@@ -443,17 +443,17 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, ABI will not find a list of issues or clear directions on where to find issues. The information provided at the bottom of the page is about the FLOSScoach project, technologies used, and contact information, but it does not directly address the subgoal of finding issues. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, will not feel that they have made progress toward their goal of finding issues. The lack of relevant information about issues will likely leave ABI uncertain about what to do next.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, Abi will not find a direct list of issues or clear instructions on where to find them. The information provided is about the FLOSScoach project, technologies used, and contact details, but it does not guide Abi toward finding issues for newcomers to work on. Given Abi's need for comprehensive information and clear guidance, she will not feel confident that she is making progress toward her goal. Additionally, Abi's low computer self-efficacy means she might struggle to figure out the next steps without explicit instructions.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The issue icon on the left side is clearly labeled and visually distinct, making it easy for ABI to identify. Given ABI's comprehensive information processing style, they are likely to notice the icon while scanning the page. Additionally, the icon is a standard feature in many repository interfaces, which aligns with ABI's preference for process-oriented learning. Clicking on the issue icon is a logical step toward finding a list of issues, and the page provides enough context for ABI to understand that this action is relevant to their goal.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The issue icon on the left side is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy, she might not feel confident about clicking an unfamiliar icon without clear guidance. Additionally, Abi prefers process-oriented learning and step-by-step instructions, which are not provided here. Without explicit information about what the icon does, Abi is unlikely to take this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the issue icon, ABI will be directed to a page that clearly lists the issues. The page is well-organized, showing open, closed, and all issues, which aligns with ABI's comprehensive information processing style. The presence of a list of issues directly addresses ABI's subgoal of finding issues to work on. The clear labeling and categorization of issues will help ABI understand that they have made progress toward their goal and provide the necessary information to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the issue icon, Abi will be directed to a page that clearly lists issues, which is exactly what she is looking for. The page provides a comprehensive list of issues with relevant details such as titles, creation dates, and labels, which aligns with Abi's need for comprehensive information. This will make Abi feel confident that she is making progress toward her goal of finding an issue for a newcomer to work on.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Selecting an issue to work on is a logical next step after finding the list of issues, which aligns with ABI's motivation to accomplish their tasks. The page provides a clear and organized list of issues, which supports ABI's comprehensive information processing style. ABI will recognize that selecting an issue is a necessary step toward achieving the overall use case of finding an issue for a newcomer to work on. The clear presentation of issues will help ABI feel confident that they are making progress toward their goal.</t>
+Why: Selecting an issue to work on is a logical next step after finding the list of issues, which aligns with Abi's goal of finding an issue for a newcomer to work on. The page provides a clear and comprehensive list of issues, which supports Abi's information processing style. This step is directly related to achieving the overall use case, and Abi will likely recognize it as such.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page is well-organized and presents a clear list of issues, which aligns with ABI's comprehensive information processing style. ABI will know to read through the list to find an issue to work on, as this is a logical step toward achieving their goal. The page provides sufficient information, such as issue titles, labels, and creation dates, which will help ABI in making an informed decision. The clear presentation and relevant details will guide ABI in taking this action confidently.</t>
+Why: The page provides a clear and organized list of issues, which aligns with Abi's comprehensive information processing style. Abi will know to read through the list to find an issue that is suitable for a newcomer. The titles and labels of the issues are visible, making it easier for Abi to understand the nature of each issue. This step is directly related to her goal of selecting an issue to work on, and the page is structured in a way that supports this action.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on this page. ABI, who prefers comprehensive information, might not feel they have all the necessary details to make an informed decision just by reading the titles and brief descriptions. ABI might need to click on each issue to get more information, which could be overwhelming and might not align with their low confidence in unfamiliar computing tasks. Therefore, ABI might not feel confident that they are making progress toward their goal or that they have all the information they need just by reading through the list.</t>
+Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on this page. Abi, who prefers comprehensive information, might not feel she has all the necessary details to make an informed decision just by reading the titles and brief descriptions. Additionally, Abi's low computer self-efficacy might make her hesitant to click on individual issues to gather more information, fearing she might not be able to navigate back easily or understand the next steps. Therefore, she might not feel confident that she is making progress toward her goal or that she has all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page is well-organized and presents a clear list of issues, which aligns with ABI's comprehensive information processing style. The issues are displayed with titles and labels, making it easy for ABI to understand that clicking on an issue will provide more detailed information. Given ABI's motivation to accomplish their tasks, they will recognize that selecting or clicking on an issue is a necessary step toward achieving their goal of finding an issue to work on. The clear presentation and relevant details will guide ABI in taking this action confidently.</t>
+Why: The page clearly lists issues with clickable titles, which is a common and intuitive way to access more detailed information about each issue. Abi, who prefers comprehensive information, will likely understand that clicking on an issue title will provide her with the detailed information she needs to make an informed decision. The page is structured in a way that supports this action, and it aligns with her goal of selecting an issue to work on.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, ABI lands on a page with detailed information about the issue. However, the page lacks comprehensive details that ABI might need to feel confident in selecting the issue to work on. The description is minimal ("test test test"), and there are no labels, milestones, or assignees, which are critical pieces of information for understanding the context and requirements of the issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not feel they have all the necessary details to proceed. This lack of detailed information might leave ABI uncertain about whether they are making progress toward their goal.</t>
+Why: After clicking on an issue, Abi lands on a page that provides some details about the issue. However, the information presented is minimal and lacks comprehensive details that Abi might need to feel confident about selecting the issue to work on. The page does not provide clear instructions or detailed descriptions, which might make Abi feel uncertain about whether she is making progress toward her goal. Additionally, given Abi's low computer self-efficacy, she might struggle to understand what to do next without more detailed guidance.</t>
         </is>
       </c>
     </row>

--- a/outputs/PITTSBURG2.xlsx
+++ b/outputs/PITTSBURG2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page primarily displays a repository's file structure and some information about the FLOSScoach project. There is no clear indication or direct link to a list of issues or where issues are located. Given Abi's preference for comprehensive information and process-oriented learning, she would likely not consider this page as a step toward finding issues for a newcomer to work on. Additionally, Abi's low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository view, which primarily lists files and directories. ABI is looking for issues to work on, and this page does not explicitly indicate where to find issues. Given ABI's comprehensive information processing style, they would need clear guidance or a direct link to the issues section. Additionally, ABI's low computer self-efficacy means they might not feel confident navigating through the repository to find the issues without explicit instructions. Therefore, ABI is unlikely to consider this page as a step toward finding issues.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather all available information before making decisions, and scrolling down is a natural action to see if there is more relevant information further down the page. The page is not overwhelming and provides structured information, which should be manageable for Abi to process.</t>
+Why: Scrolling down the webpage aligns with ABI's comprehensive information processing style. ABI tends to gather all available information before making decisions, and scrolling down is a natural action to see if there is more relevant information on the page. The page is not overwhelming and provides structured information, so ABI will likely feel comfortable taking this action to find more details.</t>
         </is>
       </c>
     </row>
@@ -443,17 +443,17 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, Abi will not find a direct list of issues or clear instructions on where to find them. The information provided is about the FLOSScoach project, technologies used, and contact details, but it does not guide Abi toward finding issues for newcomers to work on. Given Abi's need for comprehensive information and clear guidance, she will not feel confident that she is making progress toward her goal. Additionally, Abi's low computer self-efficacy means she might struggle to figure out the next steps without explicit instructions.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, ABI will not find a list of issues or clear instructions on where to find them. The page provides information about FLOSSCoach, how to use it, and other details, but it does not directly address the subgoal of finding issues for a newcomer to work on. Given ABI's comprehensive information processing style, they need explicit and clear information to feel confident they are making progress. Additionally, ABI's low computer self-efficacy means they might feel uncertain about what to do next without clear guidance. Therefore, ABI will not know they did the right thing or are making progress toward their goal.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The issue icon on the left side is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy, she might not feel confident about clicking an unfamiliar icon without clear guidance. Additionally, Abi prefers process-oriented learning and step-by-step instructions, which are not provided here. Without explicit information about what the icon does, Abi is unlikely to take this action.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The issue icon on the left side is clearly labeled and visually distinct, making it easier for ABI to identify it as a potential place to find issues. Given ABI's comprehensive information processing style, they are likely to notice this icon while scanning the page. Additionally, the icon is a common symbol for issues in many platforms, which might give ABI the confidence to click on it despite their low computer self-efficacy. Therefore, ABI will likely know what to do at this step and feel that the page is good enough to take this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the issue icon, Abi will be directed to a page that clearly lists issues, which is exactly what she is looking for. The page provides a comprehensive list of issues with relevant details such as titles, creation dates, and labels, which aligns with Abi's need for comprehensive information. This will make Abi feel confident that she is making progress toward her goal of finding an issue for a newcomer to work on.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the issue icon, ABI will land on a page that clearly lists issues, which directly aligns with their subgoal of finding a list of issues to work on. The page is well-organized, showing open, closed, and all issues, along with relevant details such as titles, dates, and labels. This clear presentation of information will help ABI understand that they have made progress toward their goal. The structured format and familiar layout will also boost ABI's confidence, making them feel that they did the right thing and are on the right track.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Selecting an issue to work on is a logical next step after finding the list of issues, which aligns with Abi's goal of finding an issue for a newcomer to work on. The page provides a clear and comprehensive list of issues, which supports Abi's information processing style. This step is directly related to achieving the overall use case, and Abi will likely recognize it as such.</t>
+Why: Selecting an issue to work on is a logical next step after finding the list of issues, which aligns with ABI's overall goal of finding an issue for a newcomer to work on. The page clearly presents a list of issues, making it evident that the next step is to choose one. Given ABI's comprehensive information processing style, they will recognize that selecting an issue is necessary to proceed. Additionally, ABI's motivation to accomplish their task will drive them to consider this step as part of achieving their overall use case.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page provides a clear and organized list of issues, which aligns with Abi's comprehensive information processing style. Abi will know to read through the list to find an issue that is suitable for a newcomer. The titles and labels of the issues are visible, making it easier for Abi to understand the nature of each issue. This step is directly related to her goal of selecting an issue to work on, and the page is structured in a way that supports this action.</t>
+Why: The page clearly lists issues with relevant details such as titles, dates, and labels, making it straightforward for ABI to read through the list. Given ABI's comprehensive information processing style, they will naturally want to read through the list to gather all necessary information before making a decision. Additionally, ABI's motivation to find an issue to work on will drive them to take this action. The page is well-organized and not overwhelming, which will help ABI feel confident in knowing what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on this page. Abi, who prefers comprehensive information, might not feel she has all the necessary details to make an informed decision just by reading the titles and brief descriptions. Additionally, Abi's low computer self-efficacy might make her hesitant to click on individual issues to gather more information, fearing she might not be able to navigate back easily or understand the next steps. Therefore, she might not feel confident that she is making progress toward her goal or that she has all the information she needs.</t>
+Why: While ABI can read through the list of issues, the titles alone may not provide enough detailed information for ABI to feel confident that they are making progress toward selecting an appropriate issue to work on. ABI's comprehensive information processing style means they need more detailed descriptions to fully understand each issue and make an informed decision. Additionally, ABI's low computer self-efficacy might make them hesitant to proceed without more context or guidance. Therefore, simply reading through the list may not give ABI the assurance that they are making the right progress or have all the information they need.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page clearly lists issues with clickable titles, which is a common and intuitive way to access more detailed information about each issue. Abi, who prefers comprehensive information, will likely understand that clicking on an issue title will provide her with the detailed information she needs to make an informed decision. The page is structured in a way that supports this action, and it aligns with her goal of selecting an issue to work on.</t>
+Why: The page is well-organized and clearly lists issues with relevant details such as titles, dates, and labels. Given ABI's comprehensive information processing style, they will understand that clicking on an issue will provide more detailed information about it. Additionally, ABI's motivation to find an issue to work on will drive them to take this action. The page is intuitive and straightforward, making it clear that clicking on an issue is the next logical step to gather more information and make a selection.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a page that provides some details about the issue. However, the information presented is minimal and lacks comprehensive details that Abi might need to feel confident about selecting the issue to work on. The page does not provide clear instructions or detailed descriptions, which might make Abi feel uncertain about whether she is making progress toward her goal. Additionally, given Abi's low computer self-efficacy, she might struggle to understand what to do next without more detailed guidance.</t>
+Why: After clicking on an issue, ABI lands on a page with minimal information about the issue itself. The page shows the issue title, status, and some metadata, but it lacks detailed descriptions or context that ABI would need to feel confident they are making progress toward selecting an issue to work on. Given ABI's comprehensive information processing style, they require more detailed information to understand the issue fully. Additionally, ABI's low computer self-efficacy might make them feel uncertain about what to do next without more context or guidance. Therefore, ABI will not know they did the right thing or are making progress toward their goal, and they will not have all the information they need.</t>
         </is>
       </c>
     </row>
